--- a/AR/Customer Address book & CNY gift/Customer Address Book.xlsx
+++ b/AR/Customer Address book & CNY gift/Customer Address Book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audrinayoo\Documents\AR\Customer Address book &amp; CNY gift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776457D5-B459-4471-91C7-30A8B81A191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FBD44-4051-4A21-9A7C-33D6BCD4B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8346D1FA-795A-4979-B3B5-DC6DA5F4C5EE}"/>
   </bookViews>
@@ -24,8 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>audrinayoo</author>
+  </authors>
+  <commentList>
+    <comment ref="C222" authorId="0" shapeId="0" xr:uid="{20D77EEB-C31F-4141-AC5F-5542673AA652}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">audrinayoo: 
+OLD ADDRESS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No 12, Jalan SC 5/E, Pusat Perindustrian, Pusat Perindustrian Sg Chua, 43000 Kajang, Selangor
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="438">
   <si>
     <t>Kelnico Marketing</t>
   </si>
@@ -1009,13 +1045,346 @@
   </si>
   <si>
     <t>Cash - Encik Razak</t>
+  </si>
+  <si>
+    <t>C00000045</t>
+  </si>
+  <si>
+    <t>Kelnico Sdn Bhd</t>
+  </si>
+  <si>
+    <t>C00000046</t>
+  </si>
+  <si>
+    <t>Berkat Fibreglass</t>
+  </si>
+  <si>
+    <t>Encik Amin</t>
+  </si>
+  <si>
+    <t>019-397 1222</t>
+  </si>
+  <si>
+    <t>Klang</t>
+  </si>
+  <si>
+    <t>C00000047</t>
+  </si>
+  <si>
+    <t>Ms Connie</t>
+  </si>
+  <si>
+    <t>017-257 1257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAD Builders Sdn Bhd </t>
+  </si>
+  <si>
+    <t>C00000048</t>
+  </si>
+  <si>
+    <t>VR Motorhome &amp; Caravan Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Lot 4928-01, Lorong Mahang</t>
+  </si>
+  <si>
+    <t>Jalan Meru, Batu 6</t>
+  </si>
+  <si>
+    <t>41050 Klang, Selangor</t>
+  </si>
+  <si>
+    <t>Mr Sam Tee</t>
+  </si>
+  <si>
+    <t>019-900 0762</t>
+  </si>
+  <si>
+    <t>Info.vrmotorz@gmail.com</t>
+  </si>
+  <si>
+    <t>03-3392 9969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash - Encik Mohammad Mongal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encik Mohammad Mongal </t>
+  </si>
+  <si>
+    <t>Lot 2241, Jalan Perusahaan 3/1</t>
+  </si>
+  <si>
+    <t>48000 Rawang, Selangor</t>
+  </si>
+  <si>
+    <t>Kaw Perindustrian PKNS</t>
+  </si>
+  <si>
+    <t>010-2900 729</t>
+  </si>
+  <si>
+    <t>DOB Engineering Solutions</t>
+  </si>
+  <si>
+    <t>En Doal</t>
+  </si>
+  <si>
+    <t>C00000049</t>
+  </si>
+  <si>
+    <t>YL Professional Fiber Trading</t>
+  </si>
+  <si>
+    <t>C00000050</t>
+  </si>
+  <si>
+    <t>C00000051</t>
+  </si>
+  <si>
+    <t>Encik Aziz</t>
+  </si>
+  <si>
+    <t>017-218 8091</t>
+  </si>
+  <si>
+    <t>C00000052</t>
+  </si>
+  <si>
+    <t>Cash - Mr Wong</t>
+  </si>
+  <si>
+    <t>010-4063695</t>
+  </si>
+  <si>
+    <t>014-6241132</t>
+  </si>
+  <si>
+    <t>C00000053</t>
+  </si>
+  <si>
+    <t>Encik Khairon</t>
+  </si>
+  <si>
+    <t>012-694 8350</t>
+  </si>
+  <si>
+    <t>Encik Fazri</t>
+  </si>
+  <si>
+    <t>012-956 1558</t>
+  </si>
+  <si>
+    <t>Tice Empire</t>
+  </si>
+  <si>
+    <t>No 2868A Lot 15656</t>
+  </si>
+  <si>
+    <t>68100 Batu Caves, Selangor</t>
+  </si>
+  <si>
+    <t>Jalan Changkat Jaya, Off Jalan 19</t>
+  </si>
+  <si>
+    <t>Cash - Shikh House of Design</t>
+  </si>
+  <si>
+    <t>Unit No. 433, PKNS Bizpoint,</t>
+  </si>
+  <si>
+    <t>Seksyen 7, 40000 Shah Alam</t>
+  </si>
+  <si>
+    <t>No. 67B, Tingkat 2, Jalan Plumbum P7/P</t>
+  </si>
+  <si>
+    <t>Encik Shikh</t>
+  </si>
+  <si>
+    <t>shikhakbar70@gmail.com</t>
+  </si>
+  <si>
+    <t>012-234 4861 / 603-5511 2613</t>
+  </si>
+  <si>
+    <t>C00000054</t>
+  </si>
+  <si>
+    <t>WingFongStaff</t>
+  </si>
+  <si>
+    <t>Cash - Jamil</t>
+  </si>
+  <si>
+    <t>C00000055</t>
+  </si>
+  <si>
+    <t>012-260 6909</t>
+  </si>
+  <si>
+    <t>Cash - Encik Aziz (Shikh House of Design)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash - Encik Aziz (Sg Lang Marine Ventures) </t>
+  </si>
+  <si>
+    <t>Cash - Shermark Resources</t>
+  </si>
+  <si>
+    <t>Lot 2310, Batu 20 1/2</t>
+  </si>
+  <si>
+    <t>45800 Jeram Selangor</t>
+  </si>
+  <si>
+    <t>Encik Syah</t>
+  </si>
+  <si>
+    <t>012-407 5773</t>
+  </si>
+  <si>
+    <t>C00000056</t>
+  </si>
+  <si>
+    <t>C00000057</t>
+  </si>
+  <si>
+    <t>Lot 3035, Jalan Besar</t>
+  </si>
+  <si>
+    <t>Kampung Paya Jaras</t>
+  </si>
+  <si>
+    <t>Sungai Buloh</t>
+  </si>
+  <si>
+    <t>47000 Selangor Darul Ehsan</t>
+  </si>
+  <si>
+    <t>Rubby's husband</t>
+  </si>
+  <si>
+    <t>011-1161 0636</t>
+  </si>
+  <si>
+    <t>Mr Tan</t>
+  </si>
+  <si>
+    <t>C00000058</t>
+  </si>
+  <si>
+    <t>32, Pinggiran Golf</t>
+  </si>
+  <si>
+    <t>Saujana Resort</t>
+  </si>
+  <si>
+    <t>Cash - Kevin Wong</t>
+  </si>
+  <si>
+    <t>012-210 0982</t>
+  </si>
+  <si>
+    <t>Mr Kevin Wong</t>
+  </si>
+  <si>
+    <t>C00000059</t>
+  </si>
+  <si>
+    <t>S&amp;J Water Tank Solotioms (KL) Sdn Bhd</t>
+  </si>
+  <si>
+    <t>42500 Telok Panglima Garang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 8-1, Jalan Rimbayu </t>
+  </si>
+  <si>
+    <t>1/2,Bandar Rimbayu</t>
+  </si>
+  <si>
+    <t>C00000060</t>
+  </si>
+  <si>
+    <t>Kai Chuan Fibreglass</t>
+  </si>
+  <si>
+    <t>Off Jalan Meru</t>
+  </si>
+  <si>
+    <t>Lot 2514, 2 Miles, Batu Belah</t>
+  </si>
+  <si>
+    <t>42100 Klang, Selangor</t>
+  </si>
+  <si>
+    <t>Mr Hong</t>
+  </si>
+  <si>
+    <t>017-871 7289</t>
+  </si>
+  <si>
+    <t>3, Kawasan Perindustrian</t>
+  </si>
+  <si>
+    <t>Jln Hi Tech</t>
+  </si>
+  <si>
+    <t>Rana 011-68484019</t>
+  </si>
+  <si>
+    <t>No 17, Jalan SC 5/D</t>
+  </si>
+  <si>
+    <t>017-5141429</t>
+  </si>
+  <si>
+    <t>C00000061</t>
+  </si>
+  <si>
+    <t>Cash Mr Tan</t>
+  </si>
+  <si>
+    <t>Lot 3401, Jln Kapar BT 8 1/2</t>
+  </si>
+  <si>
+    <t>Kg Perepat, 42100 Klang</t>
+  </si>
+  <si>
+    <t>Mr GK</t>
+  </si>
+  <si>
+    <t>Cash - Encik Ahmad</t>
+  </si>
+  <si>
+    <t>Tanjong Karang</t>
+  </si>
+  <si>
+    <t>Encik Ahmad</t>
+  </si>
+  <si>
+    <t>016-900 7858</t>
+  </si>
+  <si>
+    <t>GK Shaanaz Enterprise</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>C00000013a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1419,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1068,11 +1469,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,8 +1482,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1394,15 +1800,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96C3738-C5F2-47C3-8FEA-312E3BE32531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96C3738-C5F2-47C3-8FEA-312E3BE32531}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
+      <selection pane="bottomRight" activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1867,29 +2273,43 @@
         <v>315</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>313</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>89</v>
+      <c r="C52" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2811,6 +3231,9 @@
       <c r="C183" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="D183" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E183" s="1" t="s">
         <v>158</v>
       </c>
@@ -2825,6 +3248,9 @@
       <c r="C184" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D184" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="E184" s="1" t="s">
         <v>157</v>
       </c>
@@ -2836,6 +3262,9 @@
       <c r="C185" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="D185" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="F185" s="1" t="s">
         <v>161</v>
       </c>
@@ -2844,70 +3273,584 @@
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D186" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D187" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
+      <c r="D188" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C189" s="1" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C191" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C190" s="1" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C192" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C193" s="1" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C195" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C194" s="1" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C196" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C195" s="1" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C197" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C202" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C207" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C208" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C209" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B213" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C214" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C215" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C218" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C219" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C220" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C223" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C224" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C225" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B228" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C229" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C230" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F233" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C236" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C237" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B245" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C246" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C247" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C250" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C253" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C254" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C257" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C258" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C261" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C262" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C265" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C266" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +3862,11 @@
     <hyperlink ref="I152" r:id="rId4" xr:uid="{7F7DB905-EA54-415B-8BE4-067ED7E49A9F}"/>
     <hyperlink ref="I153" r:id="rId5" xr:uid="{F5703ACD-C4B0-4727-8343-3991F77988B4}"/>
     <hyperlink ref="I183" r:id="rId6" xr:uid="{F38311D8-6DD6-448B-8591-A5866107F72A}"/>
+    <hyperlink ref="I213" r:id="rId7" xr:uid="{6D1142A6-0F44-4895-8CC9-8D79F49FB00F}"/>
+    <hyperlink ref="I227" r:id="rId8" xr:uid="{5773D7D7-8A6C-4B81-B39B-2A91309CD6B8}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId7"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>